--- a/report_template/formN2.xlsx
+++ b/report_template/formN2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\gc\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CC202C-19CD-46E7-B434-79AC1BD2E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E90AAA2-4287-4FB4-A794-11295B9A4064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LN2" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LN2'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'LN2'!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>分析報告</t>
   </si>
@@ -210,26 +208,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>≦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 100</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="細明體"/>
         <family val="3"/>
@@ -251,16 +229,91 @@
     <t>LN2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 14</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt; 1000</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>&lt; 80</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGER </t>
+  </si>
+  <si>
+    <t>DF310E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -322,6 +375,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -426,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -442,12 +501,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,22 +513,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,21 +540,24 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,9 +647,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -631,9 +687,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,26 +722,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,26 +757,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,29 +937,29 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y970"/>
+  <dimension ref="A1:Y971"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.4609375" customWidth="1"/>
-    <col min="2" max="2" width="12.61328125" customWidth="1"/>
-    <col min="3" max="3" width="5.61328125" customWidth="1"/>
-    <col min="4" max="4" width="6.4609375" customWidth="1"/>
-    <col min="5" max="5" width="10.15234375" customWidth="1"/>
-    <col min="6" max="6" width="6.23046875" customWidth="1"/>
-    <col min="7" max="7" width="5.84375" customWidth="1"/>
-    <col min="8" max="8" width="12.15234375" customWidth="1"/>
-    <col min="9" max="9" width="12.61328125" customWidth="1"/>
-    <col min="10" max="10" width="5.4609375" customWidth="1"/>
-    <col min="11" max="11" width="4.4609375" customWidth="1"/>
-    <col min="12" max="12" width="11.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="6.25" customWidth="1"/>
+    <col min="7" max="7" width="5.875" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="4.4609375" customWidth="1"/>
-    <col min="15" max="15" width="4.61328125" customWidth="1"/>
+    <col min="14" max="14" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="4.625" customWidth="1"/>
     <col min="16" max="19" width="9" customWidth="1"/>
     <col min="20" max="25" width="8" customWidth="1"/>
   </cols>
@@ -998,16 +1020,16 @@
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1027,16 +1049,16 @@
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1088,16 +1110,16 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1123,16 +1145,16 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f ca="1">TODAY()</f>
-        <v>44988</v>
+        <v>45665</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>0.99999000000000005</v>
       </c>
       <c r="J7" s="1"/>
@@ -1245,24 +1267,24 @@
     </row>
     <row r="11" spans="1:25" ht="28.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>30</v>
+      <c r="E11" s="20" t="s">
+        <v>40</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="4"/>
@@ -1284,24 +1306,24 @@
     </row>
     <row r="12" spans="1:25" ht="28.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="4"/>
@@ -1323,24 +1345,24 @@
     </row>
     <row r="13" spans="1:25" ht="28.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="4"/>
@@ -1362,22 +1384,22 @@
     </row>
     <row r="14" spans="1:25" ht="28.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="4"/>
@@ -1399,24 +1421,24 @@
     </row>
     <row r="15" spans="1:25" ht="28.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="4"/>
@@ -1438,24 +1460,24 @@
     </row>
     <row r="16" spans="1:25" ht="28.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="4"/>
@@ -1475,18 +1497,30 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="16.5" customHeight="1">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1502,59 +1536,71 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+    <row r="18" spans="1:25" ht="28.5" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:25" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
@@ -27233,26 +27279,59 @@
       <c r="X970" s="1"/>
       <c r="Y970" s="1"/>
     </row>
+    <row r="971" spans="1:25" ht="16.5" customHeight="1">
+      <c r="A971" s="1"/>
+      <c r="B971" s="1"/>
+      <c r="C971" s="1"/>
+      <c r="D971" s="1"/>
+      <c r="E971" s="1"/>
+      <c r="F971" s="1"/>
+      <c r="G971" s="1"/>
+      <c r="H971" s="1"/>
+      <c r="I971" s="1"/>
+      <c r="J971" s="1"/>
+      <c r="K971" s="1"/>
+      <c r="L971" s="1"/>
+      <c r="M971" s="1"/>
+      <c r="N971" s="1"/>
+      <c r="O971" s="1"/>
+      <c r="P971" s="1"/>
+      <c r="Q971" s="1"/>
+      <c r="R971" s="1"/>
+      <c r="S971" s="1"/>
+      <c r="T971" s="1"/>
+      <c r="U971" s="1"/>
+      <c r="V971" s="1"/>
+      <c r="W971" s="1"/>
+      <c r="X971" s="1"/>
+      <c r="Y971" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="31">
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G9:H10"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E9:F10"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="E13:F13"/>
